--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adam9-Itga6.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adam9-Itga6.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.93088636957088</v>
+        <v>11.20127533333333</v>
       </c>
       <c r="H2">
-        <v>9.93088636957088</v>
+        <v>33.603826</v>
       </c>
       <c r="I2">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="J2">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>188.08807288219</v>
+        <v>192.8285726666667</v>
       </c>
       <c r="N2">
-        <v>188.08807288219</v>
+        <v>578.485718</v>
       </c>
       <c r="O2">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="P2">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="Q2">
-        <v>1867.881279264595</v>
+        <v>2159.925934573007</v>
       </c>
       <c r="R2">
-        <v>1867.881279264595</v>
+        <v>19439.33341115707</v>
       </c>
       <c r="S2">
-        <v>0.0914793514857752</v>
+        <v>0.09256687436962605</v>
       </c>
       <c r="T2">
-        <v>0.0914793514857752</v>
+        <v>0.09256687436962605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.93088636957088</v>
+        <v>11.20127533333333</v>
       </c>
       <c r="H3">
-        <v>9.93088636957088</v>
+        <v>33.603826</v>
       </c>
       <c r="I3">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="J3">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.31010074912871</v>
+        <v>0.4209206666666667</v>
       </c>
       <c r="N3">
-        <v>0.31010074912871</v>
+        <v>1.262762</v>
       </c>
       <c r="O3">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="P3">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="Q3">
-        <v>3.079575302716025</v>
+        <v>4.714848280823556</v>
       </c>
       <c r="R3">
-        <v>3.079575302716025</v>
+        <v>42.433634527412</v>
       </c>
       <c r="S3">
-        <v>0.00015082197925073</v>
+        <v>0.0002020619140207325</v>
       </c>
       <c r="T3">
-        <v>0.00015082197925073</v>
+        <v>0.0002020619140207325</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.93088636957088</v>
+        <v>11.20127533333333</v>
       </c>
       <c r="H4">
-        <v>9.93088636957088</v>
+        <v>33.603826</v>
       </c>
       <c r="I4">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="J4">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.4554345475759</v>
+        <v>45.70525533333333</v>
       </c>
       <c r="N4">
-        <v>37.4554345475759</v>
+        <v>137.115766</v>
       </c>
       <c r="O4">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="P4">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="Q4">
-        <v>371.9656644148757</v>
+        <v>511.9571491689684</v>
       </c>
       <c r="R4">
-        <v>371.9656644148757</v>
+        <v>4607.614342520716</v>
       </c>
       <c r="S4">
-        <v>0.01821699169716246</v>
+        <v>0.02194069359101626</v>
       </c>
       <c r="T4">
-        <v>0.01821699169716246</v>
+        <v>0.02194069359101626</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.93088636957088</v>
+        <v>11.20127533333333</v>
       </c>
       <c r="H5">
-        <v>9.93088636957088</v>
+        <v>33.603826</v>
       </c>
       <c r="I5">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="J5">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.45142943738572</v>
+        <v>8.223696</v>
       </c>
       <c r="N5">
-        <v>3.45142943738572</v>
+        <v>24.671088</v>
       </c>
       <c r="O5">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="P5">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="Q5">
-        <v>34.27575355526954</v>
+        <v>92.115883153632</v>
       </c>
       <c r="R5">
-        <v>34.27575355526954</v>
+        <v>829.042948382688</v>
       </c>
       <c r="S5">
-        <v>0.001678652568409916</v>
+        <v>0.003947764711207596</v>
       </c>
       <c r="T5">
-        <v>0.001678652568409916</v>
+        <v>0.003947764711207595</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.7323808856486</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H6">
-        <v>47.7323808856486</v>
+        <v>143.833961</v>
       </c>
       <c r="I6">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="J6">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>188.08807288219</v>
+        <v>192.8285726666667</v>
       </c>
       <c r="N6">
-        <v>188.08807288219</v>
+        <v>578.485718</v>
       </c>
       <c r="O6">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="P6">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="Q6">
-        <v>8977.891534860328</v>
+        <v>9245.099133541002</v>
       </c>
       <c r="R6">
-        <v>8977.891534860328</v>
+        <v>83205.89220186901</v>
       </c>
       <c r="S6">
-        <v>0.4396915930556385</v>
+        <v>0.3962126276327194</v>
       </c>
       <c r="T6">
-        <v>0.4396915930556385</v>
+        <v>0.3962126276327194</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.7323808856486</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H7">
-        <v>47.7323808856486</v>
+        <v>143.833961</v>
       </c>
       <c r="I7">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="J7">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.31010074912871</v>
+        <v>0.4209206666666667</v>
       </c>
       <c r="N7">
-        <v>0.31010074912871</v>
+        <v>1.262762</v>
       </c>
       <c r="O7">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="P7">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="Q7">
-        <v>14.80184707033655</v>
+        <v>20.18089558447578</v>
       </c>
       <c r="R7">
-        <v>14.80184707033655</v>
+        <v>181.628060260282</v>
       </c>
       <c r="S7">
-        <v>0.0007249193970824091</v>
+        <v>0.0008648826315444974</v>
       </c>
       <c r="T7">
-        <v>0.0007249193970824091</v>
+        <v>0.0008648826315444973</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.7323808856486</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H8">
-        <v>47.7323808856486</v>
+        <v>143.833961</v>
       </c>
       <c r="I8">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="J8">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.4554345475759</v>
+        <v>45.70525533333333</v>
       </c>
       <c r="N8">
-        <v>37.4554345475759</v>
+        <v>137.115766</v>
       </c>
       <c r="O8">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="P8">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="Q8">
-        <v>1787.837068062374</v>
+        <v>2191.322637703237</v>
       </c>
       <c r="R8">
-        <v>1787.837068062374</v>
+        <v>19721.90373932913</v>
       </c>
       <c r="S8">
-        <v>0.08755919199156341</v>
+        <v>0.09391242730167641</v>
       </c>
       <c r="T8">
-        <v>0.08755919199156341</v>
+        <v>0.09391242730167641</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.7323808856486</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H9">
-        <v>47.7323808856486</v>
+        <v>143.833961</v>
       </c>
       <c r="I9">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="J9">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.45142943738572</v>
+        <v>8.223696</v>
       </c>
       <c r="N9">
-        <v>3.45142943738572</v>
+        <v>24.671088</v>
       </c>
       <c r="O9">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="P9">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="Q9">
-        <v>164.7449445052351</v>
+        <v>394.2822565799521</v>
       </c>
       <c r="R9">
-        <v>164.7449445052351</v>
+        <v>3548.540309219568</v>
       </c>
       <c r="S9">
-        <v>0.00806837182384121</v>
+        <v>0.01689755909071216</v>
       </c>
       <c r="T9">
-        <v>0.00806837182384121</v>
+        <v>0.01689755909071216</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.1810414869128</v>
+        <v>25.59984766666667</v>
       </c>
       <c r="H10">
-        <v>23.1810414869128</v>
+        <v>76.799543</v>
       </c>
       <c r="I10">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="J10">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>188.08807288219</v>
+        <v>192.8285726666667</v>
       </c>
       <c r="N10">
-        <v>188.08807288219</v>
+        <v>578.485718</v>
       </c>
       <c r="O10">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="P10">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="Q10">
-        <v>4360.077420675525</v>
+        <v>4936.382086047431</v>
       </c>
       <c r="R10">
-        <v>4360.077420675525</v>
+        <v>44427.43877442688</v>
       </c>
       <c r="S10">
-        <v>0.2135344785018686</v>
+        <v>0.2115560784217158</v>
       </c>
       <c r="T10">
-        <v>0.2135344785018686</v>
+        <v>0.2115560784217158</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.1810414869128</v>
+        <v>25.59984766666667</v>
       </c>
       <c r="H11">
-        <v>23.1810414869128</v>
+        <v>76.799543</v>
       </c>
       <c r="I11">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="J11">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.31010074912871</v>
+        <v>0.4209206666666667</v>
       </c>
       <c r="N11">
-        <v>0.31010074912871</v>
+        <v>1.262762</v>
       </c>
       <c r="O11">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="P11">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="Q11">
-        <v>7.188458330675365</v>
+        <v>10.77550494641845</v>
       </c>
       <c r="R11">
-        <v>7.188458330675365</v>
+        <v>96.97954451776602</v>
       </c>
       <c r="S11">
-        <v>0.0003520542304121186</v>
+        <v>0.0004618004704136235</v>
       </c>
       <c r="T11">
-        <v>0.0003520542304121186</v>
+        <v>0.0004618004704136234</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.1810414869128</v>
+        <v>25.59984766666667</v>
       </c>
       <c r="H12">
-        <v>23.1810414869128</v>
+        <v>76.799543</v>
       </c>
       <c r="I12">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="J12">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.4554345475759</v>
+        <v>45.70525533333333</v>
       </c>
       <c r="N12">
-        <v>37.4554345475759</v>
+        <v>137.115766</v>
       </c>
       <c r="O12">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="P12">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="Q12">
-        <v>868.2559821577039</v>
+        <v>1170.047574099437</v>
       </c>
       <c r="R12">
-        <v>868.2559821577039</v>
+        <v>10530.42816689494</v>
       </c>
       <c r="S12">
-        <v>0.04252277436106808</v>
+        <v>0.05014414849348042</v>
       </c>
       <c r="T12">
-        <v>0.04252277436106808</v>
+        <v>0.05014414849348042</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.1810414869128</v>
+        <v>25.59984766666667</v>
       </c>
       <c r="H13">
-        <v>23.1810414869128</v>
+        <v>76.799543</v>
       </c>
       <c r="I13">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="J13">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.45142943738572</v>
+        <v>8.223696</v>
       </c>
       <c r="N13">
-        <v>3.45142943738572</v>
+        <v>24.671088</v>
       </c>
       <c r="O13">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="P13">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="Q13">
-        <v>80.00772897719048</v>
+        <v>210.525364856976</v>
       </c>
       <c r="R13">
-        <v>80.00772897719048</v>
+        <v>1894.728283712784</v>
       </c>
       <c r="S13">
-        <v>0.003918372779861385</v>
+        <v>0.009022381132799294</v>
       </c>
       <c r="T13">
-        <v>0.003918372779861385</v>
+        <v>0.009022381132799292</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.201318285323561</v>
+        <v>9.654369000000001</v>
       </c>
       <c r="H14">
-        <v>8.201318285323561</v>
+        <v>28.963107</v>
       </c>
       <c r="I14">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="J14">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>188.08807288219</v>
+        <v>192.8285726666667</v>
       </c>
       <c r="N14">
-        <v>188.08807288219</v>
+        <v>578.485718</v>
       </c>
       <c r="O14">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="P14">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="Q14">
-        <v>1542.570151379975</v>
+        <v>1861.638194267314</v>
       </c>
       <c r="R14">
-        <v>1542.570151379975</v>
+        <v>16754.74374840583</v>
       </c>
       <c r="S14">
-        <v>0.0755472623640792</v>
+        <v>0.07978330464581733</v>
       </c>
       <c r="T14">
-        <v>0.0755472623640792</v>
+        <v>0.07978330464581732</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.201318285323561</v>
+        <v>9.654369000000001</v>
       </c>
       <c r="H15">
-        <v>8.201318285323561</v>
+        <v>28.963107</v>
       </c>
       <c r="I15">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="J15">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.31010074912871</v>
+        <v>0.4209206666666667</v>
       </c>
       <c r="N15">
-        <v>0.31010074912871</v>
+        <v>1.262762</v>
       </c>
       <c r="O15">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="P15">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="Q15">
-        <v>2.543234944121823</v>
+        <v>4.063723435726001</v>
       </c>
       <c r="R15">
-        <v>2.543234944121823</v>
+        <v>36.57351092153401</v>
       </c>
       <c r="S15">
-        <v>0.0001245547487128434</v>
+        <v>0.0001741569795179655</v>
       </c>
       <c r="T15">
-        <v>0.0001245547487128434</v>
+        <v>0.0001741569795179655</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.201318285323561</v>
+        <v>9.654369000000001</v>
       </c>
       <c r="H16">
-        <v>8.201318285323561</v>
+        <v>28.963107</v>
       </c>
       <c r="I16">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="J16">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.4554345475759</v>
+        <v>45.70525533333333</v>
       </c>
       <c r="N16">
-        <v>37.4554345475759</v>
+        <v>137.115766</v>
       </c>
       <c r="O16">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="P16">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="Q16">
-        <v>307.183940239774</v>
+        <v>441.255400227218</v>
       </c>
       <c r="R16">
-        <v>307.183940239774</v>
+        <v>3971.298602044963</v>
       </c>
       <c r="S16">
-        <v>0.01504431140882964</v>
+        <v>0.01891066380747295</v>
       </c>
       <c r="T16">
-        <v>0.01504431140882964</v>
+        <v>0.01891066380747294</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.201318285323561</v>
+        <v>9.654369000000001</v>
       </c>
       <c r="H17">
-        <v>8.201318285323561</v>
+        <v>28.963107</v>
       </c>
       <c r="I17">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="J17">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.45142943738572</v>
+        <v>8.223696</v>
       </c>
       <c r="N17">
-        <v>3.45142943738572</v>
+        <v>24.671088</v>
       </c>
       <c r="O17">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="P17">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="Q17">
-        <v>28.30627135533552</v>
+        <v>79.39459572782401</v>
       </c>
       <c r="R17">
-        <v>28.30627135533552</v>
+        <v>714.551361550416</v>
       </c>
       <c r="S17">
-        <v>0.001386297606444216</v>
+        <v>0.003402574806259553</v>
       </c>
       <c r="T17">
-        <v>0.001386297606444216</v>
+        <v>0.003402574806259552</v>
       </c>
     </row>
   </sheetData>
